--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.8875383586615</v>
+        <v>201.421009540595</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.3428925407864</v>
+        <v>275.5931113211088</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.550167358022</v>
+        <v>249.290891574064</v>
       </c>
       <c r="AD2" t="n">
-        <v>166887.5383586615</v>
+        <v>201421.009540595</v>
       </c>
       <c r="AE2" t="n">
-        <v>228342.8925407864</v>
+        <v>275593.1113211088</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.912597004186259e-06</v>
+        <v>5.640651868114065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>206550.167358022</v>
+        <v>249290.891574064</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.4121991179486</v>
+        <v>129.1417103038066</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.4931330573571</v>
+        <v>176.697385367752</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.9892270252605</v>
+        <v>159.833634904641</v>
       </c>
       <c r="AD3" t="n">
-        <v>103412.1991179487</v>
+        <v>129141.7103038066</v>
       </c>
       <c r="AE3" t="n">
-        <v>141493.1330573571</v>
+        <v>176697.385367752</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.658168368436398e-06</v>
+        <v>8.157179986432696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>127989.2270252606</v>
+        <v>159833.634904641</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.79297835385583</v>
+        <v>110.6077408857343</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.0174937858909</v>
+        <v>151.3383907489351</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.9449470105708</v>
+        <v>136.8948671406635</v>
       </c>
       <c r="AD4" t="n">
-        <v>84792.97835385583</v>
+        <v>110607.7408857343</v>
       </c>
       <c r="AE4" t="n">
-        <v>116017.493785891</v>
+        <v>151338.3907489351</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.362521725940841e-06</v>
+        <v>9.17262115698232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.775390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>104944.9470105708</v>
+        <v>136894.8671406635</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.6063606972907</v>
+        <v>95.78784494223687</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.5526905738745</v>
+        <v>131.0611553113865</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.28801273668059</v>
+        <v>118.5528625939894</v>
       </c>
       <c r="AD5" t="n">
-        <v>78606.3606972907</v>
+        <v>95787.84494223687</v>
       </c>
       <c r="AE5" t="n">
-        <v>107552.6905738745</v>
+        <v>131061.1553113865</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.874727786289378e-06</v>
+        <v>9.911050406933968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>97288.01273668058</v>
+        <v>118552.8625939894</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.80244706036106</v>
+        <v>92.98393130530722</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.71625223589</v>
+        <v>127.2247169734019</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.81771868919701</v>
+        <v>115.0825685465058</v>
       </c>
       <c r="AD6" t="n">
-        <v>75802.44706036107</v>
+        <v>92983.93130530723</v>
       </c>
       <c r="AE6" t="n">
-        <v>103716.25223589</v>
+        <v>127224.7169734019</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.127656371321129e-06</v>
+        <v>1.027568854731294e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>93817.71868919701</v>
+        <v>115082.5685465058</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.49842909405422</v>
+        <v>91.67991333900036</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.9320373251774</v>
+        <v>125.4405020626893</v>
       </c>
       <c r="AC7" t="n">
-        <v>92.20378674540089</v>
+        <v>113.4686366027097</v>
       </c>
       <c r="AD7" t="n">
-        <v>74498.42909405421</v>
+        <v>91679.91333900037</v>
       </c>
       <c r="AE7" t="n">
-        <v>101932.0373251774</v>
+        <v>125440.5020626893</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.206924133850461e-06</v>
+        <v>1.038996605974621e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH7" t="n">
-        <v>92203.7867454009</v>
+        <v>113468.6366027097</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>72.72384916100019</v>
+        <v>89.90533340594635</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.50397877183278</v>
+        <v>123.0124435093447</v>
       </c>
       <c r="AC8" t="n">
-        <v>90.00745869258517</v>
+        <v>111.2723085498939</v>
       </c>
       <c r="AD8" t="n">
-        <v>72723.84916100019</v>
+        <v>89905.33340594635</v>
       </c>
       <c r="AE8" t="n">
-        <v>99503.97877183277</v>
+        <v>123012.4435093447</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.329700468039e-06</v>
+        <v>1.056696833165405e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.147135416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>90007.45869258518</v>
+        <v>111272.3085498939</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>72.19021209227773</v>
+        <v>89.37169633722391</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.77383299200116</v>
+        <v>122.2822977295131</v>
       </c>
       <c r="AC9" t="n">
-        <v>89.34699700121442</v>
+        <v>110.6118468585232</v>
       </c>
       <c r="AD9" t="n">
-        <v>72190.21209227774</v>
+        <v>89371.69633722391</v>
       </c>
       <c r="AE9" t="n">
-        <v>98773.83299200116</v>
+        <v>122282.2977295131</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.345105863583569e-06</v>
+        <v>1.058917774219762e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.137369791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>89346.99700121442</v>
+        <v>110611.8468585232</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>72.2369808897292</v>
+        <v>89.41846513467539</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.83782412396793</v>
+        <v>122.3462888614799</v>
       </c>
       <c r="AC10" t="n">
-        <v>89.40488090935841</v>
+        <v>110.6697307666672</v>
       </c>
       <c r="AD10" t="n">
-        <v>72236.9808897292</v>
+        <v>89418.46513467538</v>
       </c>
       <c r="AE10" t="n">
-        <v>98837.82412396793</v>
+        <v>122346.2888614799</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.357243447952017e-06</v>
+        <v>1.060667606565619e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.130859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>89404.88090935841</v>
+        <v>110669.7307666672</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.3958224202794</v>
+        <v>151.7334339398598</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.9403404254882</v>
+        <v>207.6083783230894</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.43515705862</v>
+        <v>187.794526076182</v>
       </c>
       <c r="AD2" t="n">
-        <v>126395.8224202794</v>
+        <v>151733.4339398598</v>
       </c>
       <c r="AE2" t="n">
-        <v>172940.3404254882</v>
+        <v>207608.3783230894</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.767381241372951e-06</v>
+        <v>6.979266793479797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.595052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>156435.15705862</v>
+        <v>187794.526076182</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.92681485643347</v>
+        <v>106.0937446668706</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.7276383256246</v>
+        <v>145.1621419788305</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.1599479310718</v>
+        <v>131.3080708847561</v>
       </c>
       <c r="AD3" t="n">
-        <v>80926.81485643347</v>
+        <v>106093.7446668706</v>
       </c>
       <c r="AE3" t="n">
-        <v>110727.6383256246</v>
+        <v>145162.1419788305</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.480138216864079e-06</v>
+        <v>9.48667857347488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100159.9479310718</v>
+        <v>131308.0708847561</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.33444208776369</v>
+        <v>91.08403785174893</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.7076630685747</v>
+        <v>124.6251989328611</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.00082645293703</v>
+        <v>112.7311448593069</v>
       </c>
       <c r="AD4" t="n">
-        <v>74334.44208776369</v>
+        <v>91084.03785174893</v>
       </c>
       <c r="AE4" t="n">
-        <v>101707.6630685747</v>
+        <v>124625.1989328611</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.116252661153515e-06</v>
+        <v>1.041792618995532e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.417317708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>92000.82645293704</v>
+        <v>112731.1448593069</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.01286316612283</v>
+        <v>87.76245893010808</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.16293225026803</v>
+        <v>120.0804681145545</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.88983836535839</v>
+        <v>108.6201567717282</v>
       </c>
       <c r="AD5" t="n">
-        <v>71012.86316612283</v>
+        <v>87762.45893010809</v>
       </c>
       <c r="AE5" t="n">
-        <v>97162.93225026803</v>
+        <v>120080.4681145545</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.43662794383011e-06</v>
+        <v>1.088694355161119e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.228515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>87889.83836535839</v>
+        <v>108620.1567717282</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.80931907858677</v>
+        <v>85.55891484257201</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.14794601619852</v>
+        <v>117.065481880485</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.16259818590773</v>
+        <v>105.8929165922776</v>
       </c>
       <c r="AD6" t="n">
-        <v>68809.31907858676</v>
+        <v>85558.914842572</v>
       </c>
       <c r="AE6" t="n">
-        <v>94147.94601619852</v>
+        <v>117065.481880485</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.60797125147807e-06</v>
+        <v>1.113778370825199e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.134114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>85162.59818590773</v>
+        <v>105892.9165922776</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.81795857621967</v>
+        <v>84.56755434020492</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.79152284112189</v>
+        <v>115.7090587054084</v>
       </c>
       <c r="AC7" t="n">
-        <v>83.93563013490812</v>
+        <v>104.665948541278</v>
       </c>
       <c r="AD7" t="n">
-        <v>67817.95857621967</v>
+        <v>84567.55434020492</v>
       </c>
       <c r="AE7" t="n">
-        <v>92791.52284112188</v>
+        <v>115709.0587054084</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.708710298759254e-06</v>
+        <v>1.128526188377418e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.078776041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>83935.63013490812</v>
+        <v>104665.948541278</v>
       </c>
     </row>
   </sheetData>
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.1038641751575</v>
+        <v>90.3203895233051</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.81446737796755</v>
+        <v>123.5803416000982</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.05182347385096</v>
+        <v>111.7860072439161</v>
       </c>
       <c r="AD2" t="n">
-        <v>67103.86417515749</v>
+        <v>90320.3895233051</v>
       </c>
       <c r="AE2" t="n">
-        <v>91814.46737796755</v>
+        <v>123580.3416000982</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.158357162751448e-06</v>
+        <v>1.107486210766824e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>83051.82347385096</v>
+        <v>111786.0072439161</v>
       </c>
     </row>
     <row r="3">
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.57146726568466</v>
+        <v>74.02079338814357</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.14006550364762</v>
+        <v>101.2785150805506</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.49161012928647</v>
+        <v>91.61263574657687</v>
       </c>
       <c r="AD3" t="n">
-        <v>58571.46726568466</v>
+        <v>74020.79338814357</v>
       </c>
       <c r="AE3" t="n">
-        <v>80140.06550364762</v>
+        <v>101278.5150805506</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.388293957062105e-06</v>
+        <v>1.297772614315071e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.182942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72491.61012928648</v>
+        <v>91612.63574657687</v>
       </c>
     </row>
   </sheetData>
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.41215421679765</v>
+        <v>99.45517474883765</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1281892839073</v>
+        <v>136.0789577439476</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2359550786004</v>
+        <v>123.0917730049183</v>
       </c>
       <c r="AD2" t="n">
-        <v>83412.15421679764</v>
+        <v>99455.17474883764</v>
       </c>
       <c r="AE2" t="n">
-        <v>114128.1892839073</v>
+        <v>136078.9577439476</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.569478615513185e-06</v>
+        <v>9.92841340741689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.107421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>103235.9550786004</v>
+        <v>123091.7730049183</v>
       </c>
     </row>
     <row r="3">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.63127614465229</v>
+        <v>81.58895582212067</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.79960746863252</v>
+        <v>111.6336088064751</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.22925896638858</v>
+        <v>100.9794538607678</v>
       </c>
       <c r="AD3" t="n">
-        <v>65631.27614465229</v>
+        <v>81588.95582212067</v>
       </c>
       <c r="AE3" t="n">
-        <v>89799.60746863252</v>
+        <v>111633.6088064751</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.720653026056922e-06</v>
+        <v>1.166817635069346e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.345703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>81229.25896638859</v>
+        <v>100979.4538607678</v>
       </c>
     </row>
     <row r="4">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.07040017804313</v>
+        <v>78.02807985551151</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.92745987635985</v>
+        <v>106.7614612142024</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.82210230221875</v>
+        <v>96.57229719659797</v>
       </c>
       <c r="AD4" t="n">
-        <v>62070.40017804313</v>
+        <v>78028.0798555115</v>
       </c>
       <c r="AE4" t="n">
-        <v>84927.45987635985</v>
+        <v>106761.4612142024</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.135859416675787e-06</v>
+        <v>1.229567526449325e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.124348958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>76822.10230221876</v>
+        <v>96572.29719659797</v>
       </c>
     </row>
     <row r="5">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.16375524383577</v>
+        <v>78.12143492130414</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.05519239591209</v>
+        <v>106.8891937337547</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.93764420937872</v>
+        <v>96.68783910375791</v>
       </c>
       <c r="AD5" t="n">
-        <v>62163.75524383577</v>
+        <v>78121.43492130414</v>
       </c>
       <c r="AE5" t="n">
-        <v>85055.19239591209</v>
+        <v>106889.1937337547</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.138540163175935e-06</v>
+        <v>1.229972666050984e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.124348958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>76937.64420937872</v>
+        <v>96687.83910375791</v>
       </c>
     </row>
   </sheetData>
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.24947635532418</v>
+        <v>71.28184828358572</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.96301510108482</v>
+        <v>97.5309695547664</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.61777295812502</v>
+        <v>88.22275070605916</v>
       </c>
       <c r="AD2" t="n">
-        <v>56249.47635532418</v>
+        <v>71281.84828358571</v>
       </c>
       <c r="AE2" t="n">
-        <v>76963.01510108482</v>
+        <v>97530.9695547664</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.422263430965884e-06</v>
+        <v>1.331128620414266e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.326171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>69617.77295812502</v>
+        <v>88222.75070605916</v>
       </c>
     </row>
     <row r="3">
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.18294207256303</v>
+        <v>71.21531400082455</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.87197996012567</v>
+        <v>97.43993441380725</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.53542608325034</v>
+        <v>88.14040383118449</v>
       </c>
       <c r="AD3" t="n">
-        <v>56182.94207256303</v>
+        <v>71215.31400082455</v>
       </c>
       <c r="AE3" t="n">
-        <v>76871.97996012567</v>
+        <v>97439.93441380725</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.455172079593716e-06</v>
+        <v>1.336329792807736e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>69535.42608325035</v>
+        <v>88140.40383118449</v>
       </c>
     </row>
   </sheetData>
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.969363492655</v>
+        <v>166.7807532478442</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.9345493248726</v>
+        <v>228.1967844411397</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.5709712841015</v>
+        <v>206.4180036103415</v>
       </c>
       <c r="AD2" t="n">
-        <v>132969.363492655</v>
+        <v>166780.7532478442</v>
       </c>
       <c r="AE2" t="n">
-        <v>181934.5493248726</v>
+        <v>228196.7844411397</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.552263380706321e-06</v>
+        <v>6.636682366231918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.845703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>164570.9712841015</v>
+        <v>206418.0036103415</v>
       </c>
     </row>
     <row r="3">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.10076227174919</v>
+        <v>109.4379693744982</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.0703732039349</v>
+        <v>149.7378577605858</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.0882182876642</v>
+        <v>135.4470867743596</v>
       </c>
       <c r="AD3" t="n">
-        <v>84100.76227174919</v>
+        <v>109437.9693744982</v>
       </c>
       <c r="AE3" t="n">
-        <v>115070.3732039349</v>
+        <v>149737.8577605858</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.262556744453678e-06</v>
+        <v>9.130095611250356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104088.2182876642</v>
+        <v>135447.0867743596</v>
       </c>
     </row>
     <row r="4">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.93094580272317</v>
+        <v>93.96465196217522</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.2603140010398</v>
+        <v>128.5665822424698</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.21441736658578</v>
+        <v>116.296368077614</v>
       </c>
       <c r="AD4" t="n">
-        <v>76930.94580272317</v>
+        <v>93964.65196217522</v>
       </c>
       <c r="AE4" t="n">
-        <v>105260.3140010398</v>
+        <v>128566.5822424698</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.90951627241251e-06</v>
+        <v>1.007328903654024e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.508463541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>95214.41736658578</v>
+        <v>116296.368077614</v>
       </c>
     </row>
     <row r="5">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.15263811829743</v>
+        <v>90.01575207715726</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.0906667400403</v>
+        <v>123.1635232066234</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.53815398452886</v>
+        <v>111.4089694129061</v>
       </c>
       <c r="AD5" t="n">
-        <v>73152.63811829743</v>
+        <v>90015.75207715726</v>
       </c>
       <c r="AE5" t="n">
-        <v>100090.6667400403</v>
+        <v>123163.5232066234</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.270661160559967e-06</v>
+        <v>1.059979721727981e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>90538.15398452886</v>
+        <v>111408.9694129061</v>
       </c>
     </row>
     <row r="6">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.67283875995342</v>
+        <v>87.53595271881326</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.69769585692917</v>
+        <v>119.7705523235123</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.46900348043626</v>
+        <v>108.3398189088135</v>
       </c>
       <c r="AD6" t="n">
-        <v>70672.83875995342</v>
+        <v>87535.95271881326</v>
       </c>
       <c r="AE6" t="n">
-        <v>96697.69585692917</v>
+        <v>119770.5523235123</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.47664679514606e-06</v>
+        <v>1.090010084965498e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>87469.00348043625</v>
+        <v>108339.8189088135</v>
       </c>
     </row>
     <row r="7">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>68.90265064962429</v>
+        <v>85.76576460848415</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.27564638919034</v>
+        <v>117.3485028557734</v>
       </c>
       <c r="AC7" t="n">
-        <v>85.27811101452986</v>
+        <v>106.1489264429071</v>
       </c>
       <c r="AD7" t="n">
-        <v>68902.65064962429</v>
+        <v>85765.76460848415</v>
       </c>
       <c r="AE7" t="n">
-        <v>94275.64638919034</v>
+        <v>117348.5028557734</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.614289612309073e-06</v>
+        <v>1.110076842556368e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.091796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>85278.11101452986</v>
+        <v>106148.9264429071</v>
       </c>
     </row>
     <row r="8">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.18878549339425</v>
+        <v>86.05189945225409</v>
       </c>
       <c r="AB8" t="n">
-        <v>94.66714870581455</v>
+        <v>117.7400051723977</v>
       </c>
       <c r="AC8" t="n">
-        <v>85.63224889953256</v>
+        <v>106.5030643279098</v>
       </c>
       <c r="AD8" t="n">
-        <v>69188.78549339424</v>
+        <v>86051.89945225409</v>
       </c>
       <c r="AE8" t="n">
-        <v>94667.14870581456</v>
+        <v>117740.0051723977</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.578012402500463e-06</v>
+        <v>1.104788037878385e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.111328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>85632.24889953255</v>
+        <v>106503.0643279098</v>
       </c>
     </row>
   </sheetData>
@@ -7303,28 +7303,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.65095308109947</v>
+        <v>69.43642569716629</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.77584503542199</v>
+        <v>95.00598095773003</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.63934333381587</v>
+        <v>85.93874347687938</v>
       </c>
       <c r="AD2" t="n">
-        <v>54650.95308109947</v>
+        <v>69436.42569716628</v>
       </c>
       <c r="AE2" t="n">
-        <v>74775.845035422</v>
+        <v>95005.98095773003</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.41666429258721e-06</v>
+        <v>1.348547325162331e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.430338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67639.34333381588</v>
+        <v>85938.74347687938</v>
       </c>
     </row>
     <row r="3">
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.84615258609142</v>
+        <v>69.63162520215823</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.04292560974622</v>
+        <v>95.27306153205427</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.88093411297663</v>
+        <v>86.18033425604014</v>
       </c>
       <c r="AD3" t="n">
-        <v>54846.15258609142</v>
+        <v>69631.62520215823</v>
       </c>
       <c r="AE3" t="n">
-        <v>75042.92560974622</v>
+        <v>95273.06153205427</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.417237049599296e-06</v>
+        <v>1.348639094289596e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.430338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>67880.93411297663</v>
+        <v>86180.33425604014</v>
       </c>
     </row>
   </sheetData>
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.63124107617769</v>
+        <v>124.3308795420961</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.3198594605122</v>
+        <v>170.1149944807088</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.3096833997619</v>
+        <v>153.8794581654115</v>
       </c>
       <c r="AD2" t="n">
-        <v>99631.24107617768</v>
+        <v>124330.8795420961</v>
       </c>
       <c r="AE2" t="n">
-        <v>136319.8594605122</v>
+        <v>170114.9944807088</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.540406342317114e-06</v>
+        <v>8.22663466672255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>123309.6833997619</v>
+        <v>153879.4581654115</v>
       </c>
     </row>
     <row r="3">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.92878041819925</v>
+        <v>88.48054691671643</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.41613064197567</v>
+        <v>121.0629877776376</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.02343326143684</v>
+        <v>109.5089061371421</v>
       </c>
       <c r="AD3" t="n">
-        <v>71928.78041819925</v>
+        <v>88480.54691671644</v>
       </c>
       <c r="AE3" t="n">
-        <v>98416.13064197567</v>
+        <v>121062.9877776376</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.192427638927915e-06</v>
+        <v>1.067962725050811e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89023.43326143683</v>
+        <v>109508.9061371421</v>
       </c>
     </row>
     <row r="4">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.21978727419943</v>
+        <v>84.60096157212443</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.34132259312852</v>
+        <v>115.7547679539437</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.43295777023222</v>
+        <v>104.7072953632864</v>
       </c>
       <c r="AD4" t="n">
-        <v>68219.78727419944</v>
+        <v>84600.96157212443</v>
       </c>
       <c r="AE4" t="n">
-        <v>93341.32259312853</v>
+        <v>115754.7679539437</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.593068428046349e-06</v>
+        <v>1.12745160007232e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.267578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>84432.95777023223</v>
+        <v>104707.2953632864</v>
       </c>
     </row>
     <row r="5">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.18559870666625</v>
+        <v>81.56677300459125</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.18981193607941</v>
+        <v>111.6032572968945</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.67766146360876</v>
+        <v>100.951999056663</v>
       </c>
       <c r="AD5" t="n">
-        <v>65185.59870666626</v>
+        <v>81566.77300459126</v>
       </c>
       <c r="AE5" t="n">
-        <v>89189.81193607941</v>
+        <v>111603.2572968945</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.900166658354217e-06</v>
+        <v>1.173050871884634e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.1015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>80677.66146360876</v>
+        <v>100951.999056663</v>
       </c>
     </row>
     <row r="6">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.02174202707673</v>
+        <v>81.40291632500173</v>
       </c>
       <c r="AB6" t="n">
-        <v>88.96561599821862</v>
+        <v>111.3790613590337</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.47486247139634</v>
+        <v>100.7492000644505</v>
       </c>
       <c r="AD6" t="n">
-        <v>65021.74202707673</v>
+        <v>81402.91632500173</v>
       </c>
       <c r="AE6" t="n">
-        <v>88965.61599821862</v>
+        <v>111379.0613590337</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.934299740984028e-06</v>
+        <v>1.178119099438627e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>80474.86247139634</v>
+        <v>100749.2000644505</v>
       </c>
     </row>
   </sheetData>
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.2616074007946</v>
+        <v>145.2518744197138</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.5472368133662</v>
+        <v>198.7400226414051</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.8430794754413</v>
+        <v>179.7725538139394</v>
       </c>
       <c r="AD2" t="n">
-        <v>120261.6074007946</v>
+        <v>145251.8744197138</v>
       </c>
       <c r="AE2" t="n">
-        <v>164547.2368133662</v>
+        <v>198740.0226414051</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.9932398193036e-06</v>
+        <v>7.342271938847605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.357421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>148843.0794754413</v>
+        <v>179772.5538139394</v>
       </c>
     </row>
     <row r="3">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.28963142674766</v>
+        <v>103.2798089371158</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.1193276128085</v>
+        <v>141.3119909712991</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.89600932838984</v>
+        <v>127.8253728856614</v>
       </c>
       <c r="AD3" t="n">
-        <v>78289.63142674766</v>
+        <v>103279.8089371158</v>
       </c>
       <c r="AE3" t="n">
-        <v>107119.3276128085</v>
+        <v>141311.9909712991</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.663373284083653e-06</v>
+        <v>9.798107131296894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.762369791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96896.00932838983</v>
+        <v>127825.3728856613</v>
       </c>
     </row>
     <row r="4">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.15252258632756</v>
+        <v>88.78428348360016</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.7222645472165</v>
+        <v>121.4785735483594</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.30035017642321</v>
+        <v>109.8848289851845</v>
       </c>
       <c r="AD4" t="n">
-        <v>72152.52258632757</v>
+        <v>88784.28348360016</v>
       </c>
       <c r="AE4" t="n">
-        <v>98722.2645472165</v>
+        <v>121478.5735483594</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.288856743512929e-06</v>
+        <v>1.071784458004243e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>89300.35017642321</v>
+        <v>109884.8289851845</v>
       </c>
     </row>
     <row r="5">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.35831675276125</v>
+        <v>84.99007765003384</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.53086473718599</v>
+        <v>116.2871737383289</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.60441027808498</v>
+        <v>105.1888890868463</v>
       </c>
       <c r="AD5" t="n">
-        <v>68358.31675276125</v>
+        <v>84990.07765003384</v>
       </c>
       <c r="AE5" t="n">
-        <v>93530.864737186</v>
+        <v>116287.1737383289</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.683647472621132e-06</v>
+        <v>1.129836163849459e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.130859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>84604.41027808498</v>
+        <v>105188.8890868463</v>
       </c>
     </row>
     <row r="6">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.87226272799256</v>
+        <v>83.50402362526516</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.49758006042192</v>
+        <v>114.2538890615648</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.76517943713765</v>
+        <v>103.349658245899</v>
       </c>
       <c r="AD6" t="n">
-        <v>66872.26272799257</v>
+        <v>83504.02362526517</v>
       </c>
       <c r="AE6" t="n">
-        <v>91497.58006042193</v>
+        <v>114253.8890615648</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.780370713736306e-06</v>
+        <v>1.144058760095064e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.078776041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>82765.17943713765</v>
+        <v>103349.658245899</v>
       </c>
     </row>
     <row r="7">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.00672195551289</v>
+        <v>83.63848285278549</v>
       </c>
       <c r="AB7" t="n">
-        <v>91.68155310743759</v>
+        <v>114.4378621085805</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.931594354754</v>
+        <v>103.5160731635153</v>
       </c>
       <c r="AD7" t="n">
-        <v>67006.72195551288</v>
+        <v>83638.48285278548</v>
       </c>
       <c r="AE7" t="n">
-        <v>91681.55310743759</v>
+        <v>114437.8621085805</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.770717890278241e-06</v>
+        <v>1.142639367929424e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.085286458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>82931.59435475399</v>
+        <v>103516.0731635153</v>
       </c>
     </row>
   </sheetData>
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.5855262613966</v>
+        <v>191.7429148941207</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.6154692135042</v>
+        <v>262.3511152584073</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.0374314500407</v>
+        <v>237.3126930303244</v>
       </c>
       <c r="AD2" t="n">
-        <v>157585.5262613966</v>
+        <v>191742.9148941207</v>
       </c>
       <c r="AE2" t="n">
-        <v>215615.4692135042</v>
+        <v>262351.1152584073</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.119582305167751e-06</v>
+        <v>5.96009841806215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>195037.4314500407</v>
+        <v>237312.6930303244</v>
       </c>
     </row>
     <row r="3">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.24828860174028</v>
+        <v>116.4123685269495</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.7958869903164</v>
+        <v>159.2805383697398</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.8357181267214</v>
+        <v>144.0790273394153</v>
       </c>
       <c r="AD3" t="n">
-        <v>99248.28860174028</v>
+        <v>116412.3685269494</v>
       </c>
       <c r="AE3" t="n">
-        <v>135795.8869903164</v>
+        <v>159280.5383697398</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.87675501939312e-06</v>
+        <v>8.502327590466107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.211588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>122835.7181267214</v>
+        <v>144079.0273394153</v>
       </c>
     </row>
     <row r="4">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.16215780013509</v>
+        <v>108.8228025705506</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.7861331575663</v>
+        <v>148.8961594001812</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.9265443088784</v>
+        <v>134.6857189241406</v>
       </c>
       <c r="AD4" t="n">
-        <v>83162.15780013509</v>
+        <v>108822.8025705506</v>
       </c>
       <c r="AE4" t="n">
-        <v>113786.1331575663</v>
+        <v>148896.1594001812</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.456863883968406e-06</v>
+        <v>9.341613146606537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>102926.5443088784</v>
+        <v>134685.7189241406</v>
       </c>
     </row>
     <row r="5">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.57986678876712</v>
+        <v>95.65860585940466</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.5164404394038</v>
+        <v>130.8843246966296</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.25522226416636</v>
+        <v>118.3929084449215</v>
       </c>
       <c r="AD5" t="n">
-        <v>78579.86678876712</v>
+        <v>95658.60585940466</v>
       </c>
       <c r="AE5" t="n">
-        <v>107516.4404394038</v>
+        <v>130884.3246966296</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.838583798750587e-06</v>
+        <v>9.893875024560073e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>97255.22226416637</v>
+        <v>118392.9084449215</v>
       </c>
     </row>
     <row r="6">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.75131187345754</v>
+        <v>92.83005094409506</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.6462868172434</v>
+        <v>127.0141710744691</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.75443067190895</v>
+        <v>114.8921168526641</v>
       </c>
       <c r="AD6" t="n">
-        <v>75751.31187345754</v>
+        <v>92830.05094409507</v>
       </c>
       <c r="AE6" t="n">
-        <v>103646.2868172434</v>
+        <v>127014.1710744691</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.082334927765836e-06</v>
+        <v>1.024652745648799e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.326171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>93754.43067190895</v>
+        <v>114892.1168526641</v>
       </c>
     </row>
     <row r="7">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.80366015154486</v>
+        <v>89.8823992221824</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.61317969010834</v>
+        <v>122.9810639473341</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.10623762848499</v>
+        <v>111.2439238092401</v>
       </c>
       <c r="AD7" t="n">
-        <v>72803.66015154486</v>
+        <v>89882.3992221824</v>
       </c>
       <c r="AE7" t="n">
-        <v>99613.17969010834</v>
+        <v>122981.0639473341</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.3216627737449e-06</v>
+        <v>1.059278040412997e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.182942708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>90106.23762848499</v>
+        <v>111243.9238092401</v>
       </c>
     </row>
     <row r="8">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.0332094260836</v>
+        <v>88.11194849672115</v>
       </c>
       <c r="AB8" t="n">
-        <v>97.19077090075996</v>
+        <v>120.5586551579858</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.91502013411917</v>
+        <v>109.0527063148743</v>
       </c>
       <c r="AD8" t="n">
-        <v>71033.2094260836</v>
+        <v>88111.94849672116</v>
       </c>
       <c r="AE8" t="n">
-        <v>97190.77090075996</v>
+        <v>120558.6551579857</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.439209167621365e-06</v>
+        <v>1.076284329504811e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.117838541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>87915.02013411917</v>
+        <v>109052.7063148743</v>
       </c>
     </row>
     <row r="9">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>70.96395206680562</v>
+        <v>88.04269113744317</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.09600992637684</v>
+        <v>120.4638941836026</v>
       </c>
       <c r="AC9" t="n">
-        <v>87.82930301413326</v>
+        <v>108.9669891948884</v>
       </c>
       <c r="AD9" t="n">
-        <v>70963.95206680562</v>
+        <v>88042.69113744317</v>
       </c>
       <c r="AE9" t="n">
-        <v>97096.00992637684</v>
+        <v>120463.8941836026</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.424527632437435e-06</v>
+        <v>1.074160245358835e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>87829.30301413326</v>
+        <v>108966.9891948884</v>
       </c>
     </row>
   </sheetData>
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.80671583733708</v>
+        <v>111.9235513363414</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.1410223675021</v>
+        <v>153.1387406569149</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.674931811763</v>
+        <v>138.5233941802332</v>
       </c>
       <c r="AD2" t="n">
-        <v>87806.71583733708</v>
+        <v>111923.5513363414</v>
       </c>
       <c r="AE2" t="n">
-        <v>120141.0223675021</v>
+        <v>153138.7406569149</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.248502243195889e-06</v>
+        <v>9.383279679369275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.302734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>108674.931811763</v>
+        <v>138523.3941802332</v>
       </c>
     </row>
     <row r="3">
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.23875200127388</v>
+        <v>84.34511912165095</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.36727096937649</v>
+        <v>115.4047130262337</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.45642966986986</v>
+        <v>104.3906491865718</v>
       </c>
       <c r="AD3" t="n">
-        <v>68238.75200127388</v>
+        <v>84345.11912165095</v>
       </c>
       <c r="AE3" t="n">
-        <v>93367.27096937649</v>
+        <v>115404.7130262337</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.475681163813772e-06</v>
+        <v>1.1226115383129e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>84456.42966986986</v>
+        <v>104390.6491865718</v>
       </c>
     </row>
     <row r="4">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.20505030885017</v>
+        <v>79.31141742922723</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.47993824256017</v>
+        <v>108.5173802994174</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.2264143120665</v>
+        <v>98.16063382876845</v>
       </c>
       <c r="AD4" t="n">
-        <v>63205.05030885017</v>
+        <v>79311.41742922724</v>
       </c>
       <c r="AE4" t="n">
-        <v>86479.93824256017</v>
+        <v>108517.3802994174</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.070078453996066e-06</v>
+        <v>1.211871264841973e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.108072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>78226.4143120665</v>
+        <v>98160.63382876845</v>
       </c>
     </row>
     <row r="5">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.90332889910433</v>
+        <v>79.0096960194814</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.06710969873696</v>
+        <v>108.1045517555942</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.85298554505714</v>
+        <v>97.7872050617591</v>
       </c>
       <c r="AD5" t="n">
-        <v>62903.32889910433</v>
+        <v>79009.6960194814</v>
       </c>
       <c r="AE5" t="n">
-        <v>86067.10969873695</v>
+        <v>108104.5517555942</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.119458838672054e-06</v>
+        <v>1.219286641232278e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>77852.98554505713</v>
+        <v>97787.2050617591</v>
       </c>
     </row>
   </sheetData>
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.30577298230753</v>
+        <v>93.7950081039769</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.19546026615511</v>
+        <v>128.3344680315242</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.01470054955342</v>
+        <v>116.0864065211866</v>
       </c>
       <c r="AD2" t="n">
-        <v>70305.77298230754</v>
+        <v>93795.0081039769</v>
       </c>
       <c r="AE2" t="n">
-        <v>96195.4602661551</v>
+        <v>128334.4680315242</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.915387260533801e-06</v>
+        <v>1.060645272810183e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87014.70054955342</v>
+        <v>116086.4065211866</v>
       </c>
     </row>
     <row r="3">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.58964724694587</v>
+        <v>75.22077988508596</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.53318427293907</v>
+        <v>102.9203895453343</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.75177159849164</v>
+        <v>93.0978120168274</v>
       </c>
       <c r="AD3" t="n">
-        <v>59589.64724694587</v>
+        <v>75220.77988508595</v>
       </c>
       <c r="AE3" t="n">
-        <v>81533.18427293906</v>
+        <v>102920.3895453343</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.356287378956169e-06</v>
+        <v>1.281642860019543e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.130859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>73751.77159849164</v>
+        <v>93097.8120168274</v>
       </c>
     </row>
     <row r="4">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.62909517580963</v>
+        <v>75.26022781394973</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.58715866953024</v>
+        <v>102.9743639419254</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.80059475442572</v>
+        <v>93.14663517276148</v>
       </c>
       <c r="AD4" t="n">
-        <v>59629.09517580963</v>
+        <v>75260.22781394972</v>
       </c>
       <c r="AE4" t="n">
-        <v>81587.15866953024</v>
+        <v>102974.3639419254</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.366574977328535e-06</v>
+        <v>1.283220717075285e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>73800.59475442572</v>
+        <v>93146.63517276148</v>
       </c>
     </row>
   </sheetData>
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.88579438044073</v>
+        <v>76.30765541519496</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.30662996296165</v>
+        <v>104.4075005951929</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.35596212090572</v>
+        <v>94.44299527526152</v>
       </c>
       <c r="AD2" t="n">
-        <v>60885.79438044073</v>
+        <v>76307.65541519495</v>
       </c>
       <c r="AE2" t="n">
-        <v>83306.62996296166</v>
+        <v>104407.5005951929</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.852952892206234e-06</v>
+        <v>1.227008399170579e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.547526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75355.96212090572</v>
+        <v>94442.99527526152</v>
       </c>
     </row>
     <row r="3">
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.13805478624096</v>
+        <v>72.38932362040299</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.17880731157821</v>
+        <v>99.04626616896267</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.71753166642441</v>
+        <v>89.59342953812916</v>
       </c>
       <c r="AD3" t="n">
-        <v>57138.05478624096</v>
+        <v>72389.323620403</v>
       </c>
       <c r="AE3" t="n">
-        <v>78178.80731157822</v>
+        <v>99046.26616896267</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.488842620380076e-06</v>
+        <v>1.326364914882008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.205729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>70717.5316664244</v>
+        <v>89593.42953812916</v>
       </c>
     </row>
   </sheetData>
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.96845887360488</v>
+        <v>67.63731204650571</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.47378223432325</v>
+        <v>92.54435428960494</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.55698617548784</v>
+        <v>83.71205100304462</v>
       </c>
       <c r="AD2" t="n">
-        <v>52968.45887360488</v>
+        <v>67637.31204650571</v>
       </c>
       <c r="AE2" t="n">
-        <v>72473.78223432325</v>
+        <v>92544.35428960493</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.310270984476534e-06</v>
+        <v>1.354305028295849e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.612630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>65556.98617548784</v>
+        <v>83712.05100304462</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.5284677991178</v>
+        <v>138.3348033707605</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.3346581652018</v>
+        <v>189.2757808725944</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.5097364035195</v>
+        <v>171.2115659963942</v>
       </c>
       <c r="AD2" t="n">
-        <v>113528.4677991178</v>
+        <v>138334.8033707605</v>
       </c>
       <c r="AE2" t="n">
-        <v>155334.6581652018</v>
+        <v>189275.7808725944</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.273817460337321e-06</v>
+        <v>7.791436683755303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.077473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>140509.7364035195</v>
+        <v>171211.5659963942</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.25997197071129</v>
+        <v>100.0662180338029</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.9740138859196</v>
+        <v>136.9150141237638</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.14631852560954</v>
+        <v>123.8480373372577</v>
       </c>
       <c r="AD3" t="n">
-        <v>75259.9719707113</v>
+        <v>100066.2180338029</v>
       </c>
       <c r="AE3" t="n">
-        <v>102974.0138859196</v>
+        <v>136915.0141237638</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.90360569218896e-06</v>
+        <v>1.01992545333305e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>93146.31852560955</v>
+        <v>123848.0373372577</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.35002376589168</v>
+        <v>85.85916369831327</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.88776202357599</v>
+        <v>117.4762956109546</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.83180719187963</v>
+        <v>106.264522836892</v>
       </c>
       <c r="AD4" t="n">
-        <v>69350.02376589167</v>
+        <v>85859.16369831326</v>
       </c>
       <c r="AE4" t="n">
-        <v>94887.76202357598</v>
+        <v>117476.2956109546</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.545180938745663e-06</v>
+        <v>1.114710548740799e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.248046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>85831.80719187963</v>
+        <v>106264.522836892</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.58740553981826</v>
+        <v>84.09654547223985</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.47607000543553</v>
+        <v>115.0646035928142</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.65028367511873</v>
+        <v>104.0829993201311</v>
       </c>
       <c r="AD5" t="n">
-        <v>67587.40553981827</v>
+        <v>84096.54547223986</v>
       </c>
       <c r="AE5" t="n">
-        <v>92476.07000543553</v>
+        <v>115064.6035928142</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.673495988057003e-06</v>
+        <v>1.133667567822349e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.176432291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>83650.28367511873</v>
+        <v>104082.9993201311</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.76406347630783</v>
+        <v>82.2732034087294</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.98129295396713</v>
+        <v>112.5698265413458</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.39360464400009</v>
+        <v>101.8263202890125</v>
       </c>
       <c r="AD6" t="n">
-        <v>65764.06347630783</v>
+        <v>82273.2034087294</v>
       </c>
       <c r="AE6" t="n">
-        <v>89981.29295396713</v>
+        <v>112569.8265413458</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.888864378574194e-06</v>
+        <v>1.165485680432747e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>81393.60464400009</v>
+        <v>101826.3202890125</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.4082197518734</v>
+        <v>174.995257782544</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.4269176898778</v>
+        <v>239.4362319438736</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.916699580595</v>
+        <v>216.5847740180817</v>
       </c>
       <c r="AD2" t="n">
-        <v>149408.2197518734</v>
+        <v>174995.257782544</v>
       </c>
       <c r="AE2" t="n">
-        <v>204426.9176898778</v>
+        <v>239436.2319438736</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.326272836872299e-06</v>
+        <v>6.282479366862525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.138671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>184916.699580595</v>
+        <v>216584.7740180817</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.55784542348506</v>
+        <v>112.6159006134492</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.7464598229678</v>
+        <v>154.0860434821477</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.2682012013073</v>
+        <v>139.380287753374</v>
       </c>
       <c r="AD3" t="n">
-        <v>95557.84542348507</v>
+        <v>112615.9006134492</v>
       </c>
       <c r="AE3" t="n">
-        <v>130746.4598229678</v>
+        <v>154086.0434821477</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088097392462803e-06</v>
+        <v>8.840946397465062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.074869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>118268.2012013073</v>
+        <v>139380.287753374</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.77591958131644</v>
+        <v>96.91922611730112</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.1529326362942</v>
+        <v>132.6091609481234</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.73552994261722</v>
+        <v>119.9531287453961</v>
       </c>
       <c r="AD4" t="n">
-        <v>79775.91958131644</v>
+        <v>96919.22611730112</v>
       </c>
       <c r="AE4" t="n">
-        <v>109152.9326362942</v>
+        <v>132609.1609481234</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.690587110411964e-06</v>
+        <v>9.715863298105777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.615885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98735.52994261721</v>
+        <v>119953.1287453961</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.33261977057619</v>
+        <v>92.30533410596865</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.0734138106894</v>
+        <v>126.2962303476718</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.23623186106802</v>
+        <v>114.2426953811959</v>
       </c>
       <c r="AD5" t="n">
-        <v>75332.61977057619</v>
+        <v>92305.33410596865</v>
       </c>
       <c r="AE5" t="n">
-        <v>103073.4138106894</v>
+        <v>126296.2303476718</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.101198704295411e-06</v>
+        <v>1.031214073220128e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>93236.23186106802</v>
+        <v>114242.6953811959</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.86979133207143</v>
+        <v>89.84250566746391</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.70366328880652</v>
+        <v>122.9264798257889</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.18808559951798</v>
+        <v>111.1945491196458</v>
       </c>
       <c r="AD6" t="n">
-        <v>72869.79133207143</v>
+        <v>89842.50566746391</v>
       </c>
       <c r="AE6" t="n">
-        <v>99703.66328880652</v>
+        <v>122926.4798257889</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.309588595713959e-06</v>
+        <v>1.061475807568955e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.225260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>90188.08559951797</v>
+        <v>111194.5491196458</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.4780224691623</v>
+        <v>87.45073680455478</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.43113961318072</v>
+        <v>119.6539561501631</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.22788699047703</v>
+        <v>108.2343505106049</v>
       </c>
       <c r="AD7" t="n">
-        <v>70478.0224691623</v>
+        <v>87450.73680455478</v>
       </c>
       <c r="AE7" t="n">
-        <v>96431.13961318071</v>
+        <v>119653.9561501631</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.501751405423686e-06</v>
+        <v>1.089381095390619e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.117838541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>87227.88699047703</v>
+        <v>108234.3505106049</v>
       </c>
     </row>
     <row r="8">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.85930188643268</v>
+        <v>86.83201622182516</v>
       </c>
       <c r="AB8" t="n">
-        <v>95.5845788158648</v>
+        <v>118.8073953528472</v>
       </c>
       <c r="AC8" t="n">
-        <v>86.46212076750112</v>
+        <v>107.468584287629</v>
       </c>
       <c r="AD8" t="n">
-        <v>69859.30188643267</v>
+        <v>86832.01622182515</v>
       </c>
       <c r="AE8" t="n">
-        <v>95584.57881586481</v>
+        <v>118807.3953528472</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.533351511909284e-06</v>
+        <v>1.093969964943515e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.1015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>86462.12076750112</v>
+        <v>107468.584287629</v>
       </c>
     </row>
   </sheetData>
@@ -22064,28 +22064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.78037047430233</v>
+        <v>73.01178792337539</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.42589608983728</v>
+        <v>99.89794928947602</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.75016144549603</v>
+        <v>90.36382921696574</v>
       </c>
       <c r="AD2" t="n">
-        <v>58780.37047430233</v>
+        <v>73011.78792337539</v>
       </c>
       <c r="AE2" t="n">
-        <v>80425.89608983728</v>
+        <v>99897.94928947602</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.744322492282271e-06</v>
+        <v>1.290932419532108e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72750.16144549604</v>
+        <v>90363.82921696574</v>
       </c>
     </row>
   </sheetData>
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.07113867620437</v>
+        <v>95.81342074908004</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.61091149098127</v>
+        <v>131.0961492586342</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.19962449959004</v>
+        <v>118.5845167680261</v>
       </c>
       <c r="AD2" t="n">
-        <v>72071.13867620437</v>
+        <v>95813.42074908003</v>
       </c>
       <c r="AE2" t="n">
-        <v>98610.91149098126</v>
+        <v>131096.1492586342</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.813544674184426e-06</v>
+        <v>1.036957875703887e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89199.62449959005</v>
+        <v>118584.5167680261</v>
       </c>
     </row>
     <row r="3">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.42714991621158</v>
+        <v>78.22698052182253</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.41558060680933</v>
+        <v>107.0336058807271</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.26363747523605</v>
+        <v>96.81846875810706</v>
       </c>
       <c r="AD3" t="n">
-        <v>62427.14991621157</v>
+        <v>78226.98052182252</v>
       </c>
       <c r="AE3" t="n">
-        <v>85415.58060680932</v>
+        <v>107033.6058807271</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.045425691986861e-06</v>
+        <v>1.224438663520584e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.228515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>77263.63747523606</v>
+        <v>96818.46875810706</v>
       </c>
     </row>
     <row r="4">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.75315868363604</v>
+        <v>76.55298928924699</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.12515195111961</v>
+        <v>104.7431772250374</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.19180411580783</v>
+        <v>94.74663539867885</v>
       </c>
       <c r="AD4" t="n">
-        <v>60753.15868363604</v>
+        <v>76552.98928924699</v>
       </c>
       <c r="AE4" t="n">
-        <v>83125.15195111961</v>
+        <v>104743.1772250374</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.263437383098752e-06</v>
+        <v>1.25761800715218e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.117838541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>75191.80411580783</v>
+        <v>94746.63539867885</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.10187542163425</v>
+        <v>117.6005388807275</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3860933166876</v>
+        <v>160.9062454661546</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.2285433580815</v>
+        <v>145.549579232243</v>
       </c>
       <c r="AD2" t="n">
-        <v>93101.87542163425</v>
+        <v>117600.5388807275</v>
       </c>
       <c r="AE2" t="n">
-        <v>127386.0933166876</v>
+        <v>160906.2454661546</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.907244937553959e-06</v>
+        <v>8.818989139477801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.543619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115228.5433580815</v>
+        <v>145549.579232243</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.21340458823242</v>
+        <v>85.46059554827401</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.70083363748996</v>
+        <v>116.9309570844854</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.66271898860596</v>
+        <v>105.7712306540014</v>
       </c>
       <c r="AD3" t="n">
-        <v>69213.40458823243</v>
+        <v>85460.59554827401</v>
       </c>
       <c r="AE3" t="n">
-        <v>94700.83363748997</v>
+        <v>116930.9570844854</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.439323078477469e-06</v>
+        <v>1.110624498013886e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.404296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>85662.71898860596</v>
+        <v>105771.2306540014</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.79170469166382</v>
+        <v>82.03889565170539</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.01911288426153</v>
+        <v>112.249236331257</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.42781509322782</v>
+        <v>101.5363267586233</v>
       </c>
       <c r="AD4" t="n">
-        <v>65791.70469166382</v>
+        <v>82038.89565170539</v>
       </c>
       <c r="AE4" t="n">
-        <v>90019.11288426153</v>
+        <v>112249.236331257</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.81987736252927e-06</v>
+        <v>1.167437854045543e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.189453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>81427.81509322782</v>
+        <v>101536.3267586233</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.7379291710069</v>
+        <v>79.98512013104846</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.20904661071884</v>
+        <v>109.4391700577143</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.88593760087836</v>
+        <v>98.99444926627382</v>
       </c>
       <c r="AD5" t="n">
-        <v>63737.92917100689</v>
+        <v>79985.12013104846</v>
       </c>
       <c r="AE5" t="n">
-        <v>87209.04661071884</v>
+        <v>109439.1700577142</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.037322578773571e-06</v>
+        <v>1.199900482915034e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>78885.93760087836</v>
+        <v>98994.44926627382</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.88774426531592</v>
+        <v>80.13493522535751</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.41403023212786</v>
+        <v>109.6441536791233</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.07135787315647</v>
+        <v>99.17986953855196</v>
       </c>
       <c r="AD6" t="n">
-        <v>63887.74426531592</v>
+        <v>80134.93522535751</v>
       </c>
       <c r="AE6" t="n">
-        <v>87414.03023212786</v>
+        <v>109644.1536791233</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.035712618819887e-06</v>
+        <v>1.199660130271854e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>79071.35787315648</v>
+        <v>99179.86953855195</v>
       </c>
     </row>
   </sheetData>
